--- a/rider/weekly/2017_ 8.xlsx
+++ b/rider/weekly/2017_ 8.xlsx
@@ -186,22 +186,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>267</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,22 +256,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>208.65</c:v>
+                  <c:v>209.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.65</c:v>
+                  <c:v>208.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230.25</c:v>
+                  <c:v>230.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>238.88</c:v>
+                  <c:v>239.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118</c:v>
+                  <c:v>118.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.94</c:v>
+                  <c:v>101.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D2">
-        <v>208.65</v>
+        <v>209.12</v>
       </c>
       <c r="E2">
         <v>106.58</v>
@@ -803,10 +803,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="D3">
-        <v>215.65</v>
+        <v>208.59</v>
       </c>
       <c r="E3">
         <v>106.74</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D4">
-        <v>230.25</v>
+        <v>230.38</v>
       </c>
       <c r="E4">
         <v>106.9</v>
@@ -837,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D5">
-        <v>238.88</v>
+        <v>239.82</v>
       </c>
       <c r="E5">
         <v>107.07</v>
@@ -854,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>118</v>
+        <v>118.83</v>
       </c>
       <c r="E6">
         <v>107.23</v>
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>102.94</v>
+        <v>101.88</v>
       </c>
       <c r="E7">
         <v>107.39</v>
